--- a/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Quantité de produit</t>
+    <t>Quantité de produit</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -268,9 +268,6 @@
   <si>
     <t xml:space="preserve">Quantity
 </t>
-  </si>
-  <si>
-    <t>Quantité de produit</t>
   </si>
 </sst>
 </file>
@@ -962,10 +959,10 @@
         <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-quantite-produit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
